--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/premodern/high-value/premodern-high-value-rare.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/premodern/high-value/premodern-high-value-rare.xlsx
@@ -26,8 +26,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/2
-Reserved List
+          <t xml:space="preserve">Reserved List
 Border: black
 Finish: normal</t>
         </r>
@@ -36,30 +35,23 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t>When this creature dies, you may exile it. If you do, search your library for an enchantment card, put that card onto the battlefield, then shuffle.</t>
+          <t xml:space="preserve">Until end of turn, target player can't cast instant or sorcery spells, and that player can't activate abilities that aren't mana abilities.
+Draw a card.</t>
         </r>
       </text>
     </comment>
     <comment ref="I3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 3 generic
+          <t xml:space="preserve">➤ 1 generic
 ➤ 1 white</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0">
-      <text>
-        <r>
-          <t>Group: decks</t>
         </r>
       </text>
     </comment>
     <comment ref="D4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/2
-Reserved List
+          <t xml:space="preserve">Reserved List
 Border: black
 Finish: normal</t>
         </r>
@@ -68,15 +60,23 @@
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t>When this creature dies, you may exile it. If you do, search your library for an enchantment card, put that card onto the battlefield, then shuffle.</t>
+          <t xml:space="preserve">Until end of turn, target player can't cast instant or sorcery spells, and that player can't activate abilities that aren't mana abilities.
+Draw a card.</t>
         </r>
       </text>
     </comment>
     <comment ref="I4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 3 generic
+          <t xml:space="preserve">➤ 1 generic
 ➤ 1 white</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0">
+      <text>
+        <r>
+          <t>Group: decks</t>
         </r>
       </text>
     </comment>
@@ -108,7 +108,8 @@
     <comment ref="D6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Reserved List
+          <t xml:space="preserve">P/T: 1/2
+Reserved List
 Border: black
 Finish: normal</t>
         </r>
@@ -117,15 +118,14 @@
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Until end of turn, target player can't cast instant or sorcery spells, and that player can't activate abilities that aren't mana abilities.
-Draw a card.</t>
+          <t>When this creature dies, you may exile it. If you do, search your library for an enchantment card, put that card onto the battlefield, then shuffle.</t>
         </r>
       </text>
     </comment>
     <comment ref="I6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 generic
+          <t xml:space="preserve">➤ 3 generic
 ➤ 1 white</t>
         </r>
       </text>
@@ -140,7 +140,8 @@
     <comment ref="D7" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Reserved List
+          <t xml:space="preserve">P/T: 1/2
+Reserved List
 Border: black
 Finish: normal</t>
         </r>
@@ -149,20 +150,42 @@
     <comment ref="E7" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Until end of turn, target player can't cast instant or sorcery spells, and that player can't activate abilities that aren't mana abilities.
-Draw a card.</t>
+          <t>When this creature dies, you may exile it. If you do, search your library for an enchantment card, put that card onto the battlefield, then shuffle.</t>
         </r>
       </text>
     </comment>
     <comment ref="I7" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 generic
+          <t xml:space="preserve">➤ 3 generic
 ➤ 1 white</t>
         </r>
       </text>
     </comment>
     <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <t>Each player chooses from among the permanents they control an artifact, a creature, an enchantment, and a land, then sacrifices the rest.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 2 generic
+➤ 2 white</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Reserved List
@@ -171,40 +194,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <t>Regenerate target creature. You gain control of that creature if it regenerates this way.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 1 generic
-➤ 2 white</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0">
-      <text>
-        <r>
-          <t>Each player chooses from among the permanents they control an artifact, a creature, an enchantment, and a land, then sacrifices the rest.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I9" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 2 generic
 ➤ 2 white</t>
         </r>
       </text>
@@ -222,6 +222,29 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <t>Return this enchantment to its owner's hand: Draw three cards, then discard four cards.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 2 generic
+➤ 1 blue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">P/T: 2/2
 Border: black
 Finish: normal
@@ -230,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Flying
@@ -238,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 3 generic
@@ -246,7 +269,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <t>Nonbasic lands don't untap during their controllers' untap steps.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 2 generic
+➤ 1 blue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">P/T: 5/5
@@ -256,70 +302,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <t>When this creature enters, untap up to seven lands.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I6" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 5 generic
 ➤ 2 blue</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">P/T: 4/5
-Reserved List
-Border: black
-Finish: normal
-Keywords:
-➤ Flying</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Flying
-When this creature enters, untap up to seven lands.
-{2}{U}{U}: Return this creature to its owner's hand.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 5 generic
-➤ 2 blue</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0">
-      <text>
-        <r>
-          <t>Return this enchantment to its owner's hand: Draw three cards, then discard four cards.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I6" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 2 generic
-➤ 1 blue</t>
         </r>
       </text>
     </comment>
@@ -334,14 +328,14 @@
     <comment ref="E7" authorId="0">
       <text>
         <r>
-          <t>Nonbasic lands don't untap during their controllers' untap steps.</t>
+          <t>Whenever a player puts a nontoken creature onto the battlefield, that player returns a land they control to its owner's hand.</t>
         </r>
       </text>
     </comment>
     <comment ref="I7" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 2 generic
+          <t xml:space="preserve">➤ 1 generic
 ➤ 1 blue</t>
         </r>
       </text>
@@ -349,23 +343,29 @@
     <comment ref="D8" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
+          <t xml:space="preserve">P/T: 4/5
+Reserved List
+Border: black
+Finish: normal
+Keywords:
+➤ Flying</t>
         </r>
       </text>
     </comment>
     <comment ref="E8" authorId="0">
       <text>
         <r>
-          <t>Whenever a player puts a nontoken creature onto the battlefield, that player returns a land they control to its owner's hand.</t>
+          <t xml:space="preserve">Flying
+When this creature enters, untap up to seven lands.
+{2}{U}{U}: Return this creature to its owner's hand.</t>
         </r>
       </text>
     </comment>
     <comment ref="I8" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 generic
-➤ 1 blue</t>
+          <t xml:space="preserve">➤ 5 generic
+➤ 2 blue</t>
         </r>
       </text>
     </comment>
@@ -405,9 +405,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 2/3
-Reserved List
-Border: black
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -415,7 +413,8 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t>At the beginning of your upkeep, put a -1/-1 counter on each creature.</t>
+          <t xml:space="preserve">At the beginning of your upkeep, sacrifice this enchantment unless you sacrifice a creature.
+If a land is tapped for mana, it produces {B} instead of any other type and amount.</t>
         </r>
       </text>
     </comment>
@@ -423,23 +422,26 @@
       <text>
         <r>
           <t xml:space="preserve">➤ 2 generic
-➤ 2 black</t>
+➤ 1 black</t>
         </r>
       </text>
     </comment>
     <comment ref="D4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/1
+          <t xml:space="preserve">Reserved List
 Border: black
-Finish: normal</t>
+Finish: normal
+Keywords:
+➤ Cumulative upkeep</t>
         </r>
       </text>
     </comment>
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t>{T}: Target creature other than this creature has base power and toughness 0/2 until end of turn.</t>
+          <t xml:space="preserve">Cumulative upkeep—Pay 1 life. (At the beginning of your upkeep, put an age counter on this permanent, then sacrifice it unless you pay its upkeep cost for each age counter on it.)
+At the beginning of each player's upkeep, that player sacrifices a green or white permanent of their choice.</t>
         </r>
       </text>
     </comment>
@@ -454,8 +456,9 @@
     <comment ref="D5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/1
-Border: white
+          <t xml:space="preserve">P/T: 2/3
+Reserved List
+Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -463,14 +466,14 @@
     <comment ref="E5" authorId="0">
       <text>
         <r>
-          <t>{T}: Target creature other than this creature has base power and toughness 0/2 until end of turn.</t>
+          <t>At the beginning of your upkeep, put a -1/-1 counter on each creature.</t>
         </r>
       </text>
     </comment>
     <comment ref="I5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 generic
+          <t xml:space="preserve">➤ 2 generic
 ➤ 2 black</t>
         </r>
       </text>
@@ -486,15 +489,15 @@
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">At the beginning of your upkeep, sacrifice this enchantment unless you sacrifice a creature.
-If a land is tapped for mana, it produces {B} instead of any other type and amount.</t>
+          <t xml:space="preserve">As an additional cost to cast this spell, discard X cards.
+Search your library for X cards, then shuffle and put those cards on top in any order.</t>
         </r>
       </text>
     </comment>
     <comment ref="I6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 2 generic
+          <t xml:space="preserve">➤ 3 generic
 ➤ 1 black</t>
         </r>
       </text>
@@ -502,23 +505,43 @@
     <comment ref="D7" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Reserved List
-Border: black
-Finish: normal
-Keywords:
-➤ Cumulative upkeep</t>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
         </r>
       </text>
     </comment>
     <comment ref="E7" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Cumulative upkeep—Pay 1 life. (At the beginning of your upkeep, put an age counter on this permanent, then sacrifice it unless you pay its upkeep cost for each age counter on it.)
-At the beginning of each player's upkeep, that player sacrifices a green or white permanent of their choice.</t>
+          <t>Whenever a creature deals damage to you, destroy it.</t>
         </r>
       </text>
     </comment>
     <comment ref="I7" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 2 generic
+➤ 2 black</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">P/T: 1/1
+Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <t>{T}: Target creature other than this creature has base power and toughness 0/2 until end of turn.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 1 generic
@@ -526,53 +549,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0">
-      <text>
-        <r>
-          <t>Whenever a creature deals damage to you, destroy it.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I8" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 2 generic
-➤ 2 black</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D9" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Reserved List
-Border: black
-Finish: normal
-Keywords:
-➤ Cumulative upkeep</t>
+          <t xml:space="preserve">P/T: 1/1
+Border: white
+Finish: normal</t>
         </r>
       </text>
     </comment>
     <comment ref="E9" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Cumulative upkeep {1}{B} (At the beginning of your upkeep, put an age counter on this permanent, then sacrifice it unless you pay its upkeep cost for each age counter on it.)
-At the beginning of each upkeep, if this enchantment is on the battlefield, each player creates a 2/2 black Zombie creature token with haste named Tombspawn for each creature card in their graveyard.
-At the beginning of each end step and when this enchantment leaves the battlefield, destroy all tokens created with this enchantment. They can't be regenerated.</t>
+          <t>{T}: Target creature other than this creature has base power and toughness 0/2 until end of turn.</t>
         </r>
       </text>
     </comment>
     <comment ref="I9" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 2 generic
+          <t xml:space="preserve">➤ 1 generic
 ➤ 2 black</t>
         </r>
       </text>
@@ -588,15 +584,14 @@
     <comment ref="E10" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">As an additional cost to cast this spell, discard X cards.
-Search your library for X cards, then shuffle and put those cards on top in any order.</t>
+          <t>Exile the top card of your library. You may put that card into your hand unless it has the same name as another card exiled this way. Repeat this process until you put a card into your hand or you exile two cards with the same name, whichever comes first.</t>
         </r>
       </text>
     </comment>
     <comment ref="I10" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 3 generic
+          <t xml:space="preserve">➤ 1 generic
 ➤ 1 black</t>
         </r>
       </text>
@@ -604,23 +599,28 @@
     <comment ref="D11" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
+          <t xml:space="preserve">Reserved List
+Border: black
+Finish: normal
+Keywords:
+➤ Cumulative upkeep</t>
         </r>
       </text>
     </comment>
     <comment ref="E11" authorId="0">
       <text>
         <r>
-          <t>Exile the top card of your library. You may put that card into your hand unless it has the same name as another card exiled this way. Repeat this process until you put a card into your hand or you exile two cards with the same name, whichever comes first.</t>
+          <t xml:space="preserve">Cumulative upkeep {1}{B} (At the beginning of your upkeep, put an age counter on this permanent, then sacrifice it unless you pay its upkeep cost for each age counter on it.)
+At the beginning of each upkeep, if this enchantment is on the battlefield, each player creates a 2/2 black Zombie creature token with haste named Tombspawn for each creature card in their graveyard.
+At the beginning of each end step and when this enchantment leaves the battlefield, destroy all tokens created with this enchantment. They can't be regenerated.</t>
         </r>
       </text>
     </comment>
     <comment ref="I11" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 generic
-➤ 1 black</t>
+          <t xml:space="preserve">➤ 2 generic
+➤ 2 black</t>
         </r>
       </text>
     </comment>
@@ -675,6 +675,61 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">Reserved List
+Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <t>Any player may cast creature spells with mana value 3 or less without paying their mana costs and as though they had flash.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 2 generic
+➤ 2 green</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0">
+      <text>
+        <r>
+          <t>Group: decks</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Reserved List
+Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <t>Any player may cast creature spells with mana value 3 or less without paying their mana costs and as though they had flash.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 2 generic
+➤ 2 green</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">P/T: 0/1
 Border: black
 Finish: normal
@@ -683,7 +738,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Shroud (This creature can't be the target of spells or abilities.)
@@ -691,7 +746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 1 generic
@@ -699,7 +754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">P/T: 0/1 // 0/1
@@ -710,7 +765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Flying
@@ -721,67 +776,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I6" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 1 green
 //
 ➤ 1 green</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Reserved List
-Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0">
-      <text>
-        <r>
-          <t>Any player may cast creature spells with mana value 3 or less without paying their mana costs and as though they had flash.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I5" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 2 generic
-➤ 2 green</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0">
-      <text>
-        <r>
-          <t>Group: decks</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Reserved List
-Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0">
-      <text>
-        <r>
-          <t>Any player may cast creature spells with mana value 3 or less without paying their mana costs and as though they had flash.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I6" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 2 generic
-➤ 2 green</t>
         </r>
       </text>
     </comment>
@@ -889,6 +889,30 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0">
+      <text>
+        <r>
+          <t>{X}, Sacrifice this enchantment: Destroy each artifact, creature, and enchantment with mana value X or less.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 1 generic
+➤ 1 black
+➤ 1 green</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">P/T: 7/7
 Reserved List
 Border: black
@@ -896,44 +920,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <t>{2}: Create a 1/1 colorless Sliver creature token.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 1 white
 ➤ 1 blue
 ➤ 1 black
 ➤ 1 red
-➤ 1 green</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0">
-      <text>
-        <r>
-          <t>{X}, Sacrifice this enchantment: Destroy each artifact, creature, and enchantment with mana value X or less.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 1 generic
-➤ 1 black
 ➤ 1 green</t>
         </r>
       </text>
@@ -1079,7 +1079,7 @@
       <text>
         <r>
           <t xml:space="preserve">{T}: Add {C}.
-{T}: Add {B} or {R}. This land deals 1 damage to you.</t>
+{1}{W}, {T}: Prevent all combat damage that would be dealt by target attacking creature this turn.</t>
         </r>
       </text>
     </comment>
@@ -1095,7 +1095,7 @@
       <text>
         <r>
           <t xml:space="preserve">{T}: Add {C}.
-{T}, Sacrifice this land: Destroy target nonbasic land.</t>
+{T}: Add {B} or {R}. This land deals 1 damage to you.</t>
         </r>
       </text>
     </comment>
@@ -1103,14 +1103,15 @@
       <text>
         <r>
           <t xml:space="preserve">Border: black
-Finish: foil</t>
+Finish: normal</t>
         </r>
       </text>
     </comment>
     <comment ref="E9" authorId="0">
       <text>
         <r>
-          <t>{T}, Pay 1 life, Sacrifice this land: Search your library for a Forest or Plains card, put it onto the battlefield, then shuffle.</t>
+          <t xml:space="preserve">{T}: Add {C}.
+{T}, Sacrifice this land: Destroy target nonbasic land.</t>
         </r>
       </text>
     </comment>
@@ -1118,15 +1119,14 @@
       <text>
         <r>
           <t xml:space="preserve">Border: black
-Finish: normal</t>
+Finish: foil</t>
         </r>
       </text>
     </comment>
     <comment ref="E10" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">{T}: Add {C}.
-{1}{W}, {T}: Prevent all combat damage that would be dealt by target attacking creature this turn.</t>
+          <t>{T}, Pay 1 life, Sacrifice this land: Search your library for a Forest or Plains card, put it onto the battlefield, then shuffle.</t>
         </r>
       </text>
     </comment>
@@ -1182,42 +1182,6 @@
     <t>Scryfall Link</t>
   </si>
   <si>
-    <t>Academy Rector</t>
-  </si>
-  <si>
-    <t>premodern</t>
-  </si>
-  <si>
-    <t>Creature</t>
-  </si>
-  <si>
-    <t>Creature — Human Cleric</t>
-  </si>
-  <si>
-    <t>uds</t>
-  </si>
-  <si>
-    <t>Urza's Destiny</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>{3}{W}</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>67.63</t>
-  </si>
-  <si>
-    <t>Open Academy Rector</t>
-  </si>
-  <si>
-    <t>group-decks</t>
-  </si>
-  <si>
     <t>Abeyance</t>
   </si>
   <si>
@@ -1233,7 +1197,13 @@
     <t>Weatherlight</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>{1}{W}</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <t>20.65</t>
@@ -1242,19 +1212,34 @@
     <t>Open Abeyance</t>
   </si>
   <si>
-    <t>Debt of Loyalty</t>
+    <t>premodern</t>
   </si>
   <si>
-    <t>11</t>
+    <t>group-decks</t>
   </si>
   <si>
-    <t>{1}{W}{W}</t>
+    <t>Academy Rector</t>
   </si>
   <si>
-    <t>19.27</t>
+    <t>Creature</t>
   </si>
   <si>
-    <t>Open Debt of Loyalty</t>
+    <t>Creature — Human Cleric</t>
+  </si>
+  <si>
+    <t>uds</t>
+  </si>
+  <si>
+    <t>Urza's Destiny</t>
+  </si>
+  <si>
+    <t>{3}{W}</t>
+  </si>
+  <si>
+    <t>67.63</t>
+  </si>
+  <si>
+    <t>Open Academy Rector</t>
   </si>
   <si>
     <t>Cataclysm</t>
@@ -1281,7 +1266,49 @@
     <t>Open Cataclysm</t>
   </si>
   <si>
+    <t>Debt of Loyalty</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>{1}{W}{W}</t>
+  </si>
+  <si>
+    <t>19.27</t>
+  </si>
+  <si>
+    <t>Open Debt of Loyalty</t>
+  </si>
+  <si>
     <t>Premodern - High Value (Rare) - Blue</t>
+  </si>
+  <si>
+    <t>Attunement</t>
+  </si>
+  <si>
+    <t>Enchantment</t>
+  </si>
+  <si>
+    <t>usg</t>
+  </si>
+  <si>
+    <t>Urza's Saga</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>{2}{U}</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>25.14</t>
+  </si>
+  <si>
+    <t>Open Attunement</t>
   </si>
   <si>
     <t>Aura Thief</t>
@@ -1296,25 +1323,28 @@
     <t>{3}{U}</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>15.08</t>
   </si>
   <si>
     <t>Open Aura Thief</t>
   </si>
   <si>
+    <t>Back to Basics</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>10.48</t>
+  </si>
+  <si>
+    <t>Open Back to Basics</t>
+  </si>
+  <si>
     <t>Great Whale</t>
   </si>
   <si>
     <t>Creature — Whale</t>
-  </si>
-  <si>
-    <t>usg</t>
-  </si>
-  <si>
-    <t>Urza's Saga</t>
   </si>
   <si>
     <t>77</t>
@@ -1327,54 +1357,6 @@
   </si>
   <si>
     <t>Open Great Whale</t>
-  </si>
-  <si>
-    <t>Palinchron</t>
-  </si>
-  <si>
-    <t>ulg</t>
-  </si>
-  <si>
-    <t>Urza's Legacy</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>44.03</t>
-  </si>
-  <si>
-    <t>Open Palinchron</t>
-  </si>
-  <si>
-    <t>Attunement</t>
-  </si>
-  <si>
-    <t>Enchantment</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>{2}{U}</t>
-  </si>
-  <si>
-    <t>25.14</t>
-  </si>
-  <si>
-    <t>Open Attunement</t>
-  </si>
-  <si>
-    <t>Back to Basics</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>10.48</t>
-  </si>
-  <si>
-    <t>Open Back to Basics</t>
   </si>
   <si>
     <t>Overburden</t>
@@ -1398,6 +1380,24 @@
     <t>Open Overburden</t>
   </si>
   <si>
+    <t>Palinchron</t>
+  </si>
+  <si>
+    <t>ulg</t>
+  </si>
+  <si>
+    <t>Urza's Legacy</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>44.03</t>
+  </si>
+  <si>
+    <t>Open Palinchron</t>
+  </si>
+  <si>
     <t>Show and Tell</t>
   </si>
   <si>
@@ -1411,6 +1411,45 @@
   </si>
   <si>
     <t>Premodern - High Value (Rare) - Black</t>
+  </si>
+  <si>
+    <t>Contamination</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>{2}{B}</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>11.77</t>
+  </si>
+  <si>
+    <t>Open Contamination</t>
+  </si>
+  <si>
+    <t>Dystopia</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Alliances</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>{1}{B}{B}</t>
+  </si>
+  <si>
+    <t>21.53</t>
+  </si>
+  <si>
+    <t>Open Dystopia</t>
   </si>
   <si>
     <t>Harbinger of Night</t>
@@ -1431,109 +1470,10 @@
     <t>{2}{B}{B}</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>43.85</t>
   </si>
   <si>
     <t>Open Harbinger of Night</t>
-  </si>
-  <si>
-    <t>Sorceress Queen</t>
-  </si>
-  <si>
-    <t>Creature — Human Wizard Sorcerer</t>
-  </si>
-  <si>
-    <t>arn</t>
-  </si>
-  <si>
-    <t>Arabian Nights</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>{1}{B}{B}</t>
-  </si>
-  <si>
-    <t>117.75</t>
-  </si>
-  <si>
-    <t>Open Sorceress Queen</t>
-  </si>
-  <si>
-    <t>4ed</t>
-  </si>
-  <si>
-    <t>Fourth Edition</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>Contamination</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>{2}{B}</t>
-  </si>
-  <si>
-    <t>11.77</t>
-  </si>
-  <si>
-    <t>Open Contamination</t>
-  </si>
-  <si>
-    <t>Dystopia</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>Alliances</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>21.53</t>
-  </si>
-  <si>
-    <t>Open Dystopia</t>
-  </si>
-  <si>
-    <t>No Mercy</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>20.02</t>
-  </si>
-  <si>
-    <t>Open No Mercy</t>
-  </si>
-  <si>
-    <t>Tombstone Stairwell</t>
-  </si>
-  <si>
-    <t>World Enchantment</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>47.41</t>
-  </si>
-  <si>
-    <t>Open Tombstone Stairwell</t>
   </si>
   <si>
     <t>Insidious Dreams</t>
@@ -1557,6 +1497,51 @@
     <t>Open Insidious Dreams</t>
   </si>
   <si>
+    <t>No Mercy</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>20.02</t>
+  </si>
+  <si>
+    <t>Open No Mercy</t>
+  </si>
+  <si>
+    <t>Sorceress Queen</t>
+  </si>
+  <si>
+    <t>Creature — Human Wizard Sorcerer</t>
+  </si>
+  <si>
+    <t>arn</t>
+  </si>
+  <si>
+    <t>Arabian Nights</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>117.75</t>
+  </si>
+  <si>
+    <t>Open Sorceress Queen</t>
+  </si>
+  <si>
+    <t>4ed</t>
+  </si>
+  <si>
+    <t>Fourth Edition</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
     <t>Tainted Pact</t>
   </si>
   <si>
@@ -1576,6 +1561,21 @@
   </si>
   <si>
     <t>Open Tainted Pact</t>
+  </si>
+  <si>
+    <t>Tombstone Stairwell</t>
+  </si>
+  <si>
+    <t>World Enchantment</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>47.41</t>
+  </si>
+  <si>
+    <t>Open Tombstone Stairwell</t>
   </si>
   <si>
     <t>Premodern - High Value (Rare) - Red</t>
@@ -1611,6 +1611,30 @@
     <t>Premodern - High Value (Rare) - Green</t>
   </si>
   <si>
+    <t>Aluren</t>
+  </si>
+  <si>
+    <t>tmp</t>
+  </si>
+  <si>
+    <t>Tempest</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>{2}{G}{G}</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>40.57</t>
+  </si>
+  <si>
+    <t>Open Aluren</t>
+  </si>
+  <si>
     <t>Argothian Enchantress</t>
   </si>
   <si>
@@ -1621,9 +1645,6 @@
   </si>
   <si>
     <t>{1}{G}</t>
-  </si>
-  <si>
-    <t>G</t>
   </si>
   <si>
     <t>49.60</t>
@@ -1654,27 +1675,6 @@
   </si>
   <si>
     <t>Open Birds of Paradise // Birds of Paradise</t>
-  </si>
-  <si>
-    <t>Aluren</t>
-  </si>
-  <si>
-    <t>tmp</t>
-  </si>
-  <si>
-    <t>Tempest</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>{2}{G}{G}</t>
-  </si>
-  <si>
-    <t>40.57</t>
-  </si>
-  <si>
-    <t>Open Aluren</t>
   </si>
   <si>
     <t>Defense of the Heart</t>
@@ -1743,6 +1743,30 @@
     <t>Premodern - High Value (Rare) - Multicolor</t>
   </si>
   <si>
+    <t>Pernicious Deed</t>
+  </si>
+  <si>
+    <t>apc</t>
+  </si>
+  <si>
+    <t>Apocalypse</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>{1}{B}{G}</t>
+  </si>
+  <si>
+    <t>B, G</t>
+  </si>
+  <si>
+    <t>10.71</t>
+  </si>
+  <si>
+    <t>Open Pernicious Deed</t>
+  </si>
+  <si>
     <t>Sliver Queen</t>
   </si>
   <si>
@@ -1771,30 +1795,6 @@
   </si>
   <si>
     <t>Open Sliver Queen</t>
-  </si>
-  <si>
-    <t>Pernicious Deed</t>
-  </si>
-  <si>
-    <t>apc</t>
-  </si>
-  <si>
-    <t>Apocalypse</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>{1}{B}{G}</t>
-  </si>
-  <si>
-    <t>B, G</t>
-  </si>
-  <si>
-    <t>10.71</t>
-  </si>
-  <si>
-    <t>Open Pernicious Deed</t>
   </si>
   <si>
     <t>Premodern - High Value (Rare) - Artifact (Colorless)</t>
@@ -1917,6 +1917,30 @@
     <t>Open Kjeldoran Outpost</t>
   </si>
   <si>
+    <t>Kor Haven</t>
+  </si>
+  <si>
+    <t>Land - Legendary</t>
+  </si>
+  <si>
+    <t>Legendary Land</t>
+  </si>
+  <si>
+    <t>nem</t>
+  </si>
+  <si>
+    <t>Nemesis</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>14.56</t>
+  </si>
+  <si>
+    <t>Open Kor Haven</t>
+  </si>
+  <si>
     <t>Sulfurous Springs</t>
   </si>
   <si>
@@ -1966,30 +1990,6 @@
   </si>
   <si>
     <t>Open Windswept Heath</t>
-  </si>
-  <si>
-    <t>Kor Haven</t>
-  </si>
-  <si>
-    <t>Land - Legendary</t>
-  </si>
-  <si>
-    <t>Legendary Land</t>
-  </si>
-  <si>
-    <t>nem</t>
-  </si>
-  <si>
-    <t>Nemesis</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>14.56</t>
-  </si>
-  <si>
-    <t>Open Kor Haven</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2046,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2093,39 +2093,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2144,34 +2116,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2184,12 +2138,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2621,7 +2569,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>16</v>
@@ -2630,34 +2578,34 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="7">
-        <v>4</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2665,262 +2613,262 @@
         <v>15</v>
       </c>
       <c r="B4" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9">
+        <v>2</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="9">
-        <v>4</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B5" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="J5" s="11">
         <v>2</v>
       </c>
       <c r="K5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="11" t="s">
+      <c r="N5" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N6" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="13">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="B7" s="11">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="H7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="13">
-        <v>2</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="13" t="s">
+      <c r="J7" s="11">
+        <v>4</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N7" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="9">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="9">
-        <v>2</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="9">
+        <v>4</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="13">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="13">
         <v>3</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="15">
-        <v>1</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="15">
-        <v>4</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="15" t="s">
+      <c r="K9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="13" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6235,86 +6183,86 @@
         <v>49</v>
       </c>
       <c r="B3" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J3" s="7">
+        <v>3</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="9">
         <v>4</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="C4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="9">
+        <v>4</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="13">
-        <v>7</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="13" t="s">
+      <c r="L4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -6326,215 +6274,215 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="7">
+        <v>3</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" s="7">
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="9">
         <v>7</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="17">
-        <v>3</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="17" t="s">
+      <c r="K6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="N6" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="J6" s="17">
-        <v>3</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>77</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J7" s="7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="9">
+        <v>7</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="13">
         <v>3</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="13">
-        <v>2</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="15">
-        <v>1</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="15">
-        <v>3</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="15" t="s">
+      <c r="K9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="13" t="s">
         <v>90</v>
       </c>
     </row>
@@ -9852,210 +9800,210 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="J3" s="7">
+        <v>3</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="L3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="7">
-        <v>4</v>
-      </c>
-      <c r="K3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="H4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="I4" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="J4" s="9">
+        <v>3</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="N4" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="J4" s="13">
-        <v>3</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J5" s="7">
-        <v>3</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="17" t="s">
+      <c r="E6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="G6" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="17">
-        <v>3</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" s="17" t="s">
+      <c r="H6" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="I6" s="9" t="s">
         <v>117</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>121</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>122</v>
@@ -10065,178 +10013,178 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" s="13">
-        <v>4</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="G8" s="9" t="s">
         <v>127</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="9">
+        <v>3</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="7">
+        <v>3</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="9">
         <v>2</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="K10" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="L10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="13">
         <v>4</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="17">
-        <v>1</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="J10" s="17">
-        <v>4</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="19">
-        <v>1</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="J11" s="19">
-        <v>2</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11" s="19" t="s">
+      <c r="K11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="N11" s="19" t="s">
+      <c r="N11" s="13" t="s">
         <v>146</v>
       </c>
     </row>
@@ -13549,46 +13497,46 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="C3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="13">
         <v>3</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="13" t="s">
         <v>156</v>
       </c>
     </row>
@@ -16896,165 +16844,165 @@
         <v>158</v>
       </c>
       <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="7">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="G4" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="H4" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="7">
+      <c r="I4" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" s="11">
+        <v>4</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J5" s="7">
         <v>2</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M3" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13" t="s">
+      <c r="L5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="M4" s="13" t="s">
+      <c r="N5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="11">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="J5" s="11">
-        <v>4</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>71</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9"/>
+      <c r="K6" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="J6" s="9">
-        <v>4</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="L6" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>178</v>
@@ -17071,19 +17019,19 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>181</v>
@@ -17095,10 +17043,10 @@
         <v>4</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>183</v>
@@ -17108,46 +17056,46 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="9">
         <v>1</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="M8" s="13" t="s">
+      <c r="K8" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="M8" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="9" t="s">
         <v>191</v>
       </c>
     </row>
@@ -17159,19 +17107,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>193</v>
@@ -17183,10 +17131,10 @@
         <v>3</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>195</v>
@@ -17196,46 +17144,46 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" s="21" t="s">
+      <c r="C10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="15">
         <v>1</v>
       </c>
-      <c r="K10" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="M10" s="21" t="s">
+      <c r="K10" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M10" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="15" t="s">
         <v>200</v>
       </c>
     </row>
@@ -20554,83 +20502,83 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="7">
+        <v>3</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="L3" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="J3" s="7">
+      <c r="N3" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="J4" s="15">
         <v>5</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="23">
-        <v>1</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="J4" s="23">
-        <v>3</v>
-      </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="N4" s="23" t="s">
+      <c r="N4" s="15" t="s">
         <v>219</v>
       </c>
     </row>
@@ -23943,7 +23891,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>222</v>
@@ -23952,10 +23900,10 @@
         <v>222</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>223</v>
@@ -23980,46 +23928,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="15">
         <v>4</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="15" t="s">
         <v>234</v>
       </c>
     </row>
@@ -27333,7 +27281,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>237</v>
@@ -27360,7 +27308,7 @@
         <v>225</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>241</v>
@@ -27370,46 +27318,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>0</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="9" t="s">
         <v>248</v>
       </c>
     </row>
@@ -27421,7 +27369,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>237</v>
@@ -27458,46 +27406,46 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="F6" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="9">
         <v>0</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="13" t="s">
+      <c r="L6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="9" t="s">
         <v>259</v>
       </c>
     </row>
@@ -27506,25 +27454,25 @@
         <v>260</v>
       </c>
       <c r="B7" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>225</v>
@@ -27536,68 +27484,68 @@
         <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="A8" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="9">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="F8" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="9">
         <v>0</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="N8" s="13" t="s">
+      <c r="L8" s="9" t="s">
         <v>270</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>237</v>
@@ -27606,13 +27554,13 @@
         <v>237</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>225</v>
@@ -27627,53 +27575,53 @@
         <v>225</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="B10" s="23">
+      <c r="A10" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="C10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="15">
         <v>0</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="L10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="23" t="s">
+      <c r="L10" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="M10" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="15" t="s">
         <v>284</v>
       </c>
     </row>
